--- a/2024_summer/econometrics/region.xlsx
+++ b/2024_summer/econometrics/region.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trist\Desktop\Tohoku University\tohoku_bootcamp-main\Stata camp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF9888D-F211-4D1F-9D4E-9747451FEC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6FC76B-582E-4F51-8C7E-381C43C66CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22980" yWindow="1620" windowWidth="19200" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4280" yWindow="3140" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
   <si>
     <t>Asia</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,39 +45,6 @@
   <si>
     <t>company</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company 4</t>
-  </si>
-  <si>
-    <t>company 5</t>
-  </si>
-  <si>
-    <t>company 6</t>
-  </si>
-  <si>
-    <t>company 7</t>
-  </si>
-  <si>
-    <t>company 8</t>
-  </si>
-  <si>
-    <t>company 9</t>
-  </si>
-  <si>
-    <t>company 10</t>
   </si>
 </sst>
 </file>
@@ -124,7 +91,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -405,7 +372,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B1" sqref="B1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -426,80 +393,80 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="B2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
+      <c r="B3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
+      <c r="B4">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
+      <c r="B5">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
+      <c r="B6">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
+      <c r="B7">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
+      <c r="B8">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
+      <c r="B9">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
-        <v>13</v>
+      <c r="B10">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" t="s">
-        <v>14</v>
+      <c r="B11">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
